--- a/Данные/Въездные и выездные тур поездки с 2014.xlsx
+++ b/Данные/Въездные и выездные тур поездки с 2014.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="806" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Содержание" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="189">
   <si>
     <t>Содержание:</t>
   </si>
@@ -691,7 +691,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3383,6 +3383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4491,7 +4494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4526,7 +4529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4737,7 +4740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4980,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D72" sqref="D7:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6456,7 +6459,7 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6997,12 +7000,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8142,7 +8145,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9291,7 +9294,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10528,7 +10531,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15248,12 +15251,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A28" sqref="A28"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15311,78 +15314,84 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3484</v>
+      </c>
+      <c r="C6" s="14">
+        <v>6310</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B7" s="14">
-        <v>3484</v>
+        <v>1551</v>
       </c>
       <c r="C7" s="14">
-        <v>6310</v>
+        <v>2723</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B8" s="14">
-        <v>1551</v>
+        <v>896</v>
       </c>
       <c r="C8" s="14">
-        <v>2723</v>
+        <v>1363</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B9" s="14">
-        <v>896</v>
+        <v>666</v>
       </c>
       <c r="C9" s="14">
-        <v>1363</v>
+        <v>1039</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="14">
-        <v>666</v>
+        <v>278</v>
       </c>
       <c r="C10" s="14">
-        <v>1039</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>104</v>
+        <v>605</v>
+      </c>
+      <c r="D10" s="14">
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B11" s="14">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="C11" s="14">
-        <v>605</v>
+        <v>709</v>
       </c>
       <c r="D11" s="14">
         <v>874</v>
@@ -15390,295 +15399,281 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B12" s="14">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C12" s="14">
-        <v>709</v>
+        <v>606</v>
       </c>
       <c r="D12" s="14">
-        <v>874</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B13" s="14">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="C13" s="14">
-        <v>606</v>
+        <v>485</v>
       </c>
       <c r="D13" s="14">
-        <v>818</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B14" s="14">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="C14" s="14">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="D14" s="14">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15" s="14">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C15" s="14">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="D15" s="14">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B16" s="14">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="C16" s="14">
-        <v>502</v>
+        <v>359</v>
       </c>
       <c r="D16" s="14">
-        <v>584</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="15" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B17" s="14">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="C17" s="14">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D17" s="14">
-        <v>482</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B18" s="14">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="C18" s="14">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="D18" s="14">
-        <v>425</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="15" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B19" s="14">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C19" s="14">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D19" s="14">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="15" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B20" s="14">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C20" s="14">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D20" s="14">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="15" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B21" s="14">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C21" s="14">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D21" s="14">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B22" s="14">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C22" s="14">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D22" s="14">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B23" s="14">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C23" s="14">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D23" s="14">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="14">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" s="14">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D24" s="14">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B25" s="14">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C25" s="14">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D25" s="14">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="15" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B26" s="14">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C26" s="14">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D26" s="14">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="15" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B27" s="14">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C27" s="14">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D27" s="14">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="15" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B28" s="14">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C28" s="14">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D28" s="14">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B29" s="14">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" s="14">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D29" s="14">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="15" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B30" s="14">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="14">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D30" s="14">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="14">
-        <v>51</v>
-      </c>
-      <c r="C31" s="14">
-        <v>96</v>
-      </c>
-      <c r="D31" s="14">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17" t="s">
+      <c r="A31" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B31" s="18">
         <v>716</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C31" s="18">
         <v>1272</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D31" s="18">
         <v>1648</v>
       </c>
     </row>
@@ -15689,7 +15684,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15986,10 +15981,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15999,9 +15994,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="134" t="s">
-        <v>152</v>
-      </c>
+      <c r="A1" s="134"/>
       <c r="B1" s="134"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
@@ -16511,18 +16504,15 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Содержание!A1" display="          К содержанию"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16533,10 +16523,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17732,12 +17722,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17757,7 +17747,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18887,12 +18877,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18913,9 +18903,9 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20060,7 +20050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="35" t="s">
         <v>85</v>
       </c>
@@ -20125,12 +20115,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20147,10 +20137,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21371,10 +21361,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22608,10 +22598,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E7:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
